--- a/biology/Origine et évolution du vivant/Nice_Guys_Finish_First/Nice_Guys_Finish_First.xlsx
+++ b/biology/Origine et évolution du vivant/Nice_Guys_Finish_First/Nice_Guys_Finish_First.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nice Guys Finish First (diffusée à la BBC) est un documentaire de 1986 réalisé par Richard Dawkins qui traite du caractère égoïste ou coopératif des gènes, argumentant sur le fait que le comportement coopératif est souvent le plus favorable à leur propagation.
@@ -514,7 +526,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du documentaire, Richard Dawkins explique avec précision une méprise courante faite par le public au sujet de son premier ouvrage, The Selfish Gene. Il répond en particulier à une droite politique qui utilise sa théorie comme une justification du darwinisme social et du laissez-faire économique.
 Le concept d'altruisme réciproque est le thème central du documentaire. Dawkins examine aussi la tragédie des biens communs et le dilemme qu'elle représente. 
@@ -553,7 +567,9 @@
           <t>Spécificités de ce documentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le document comporte un caractère historique, car on peut y voir un Richard Dawkins bien plus jeune qu'avant qu'il ne devienne une célébrité mondiale sur YouTube avec ses positions sur l'athéisme.
 Le titre constitue également un clin d'œil, répondant au titre de l'autobiographie de Leo Durocher Nice guys finish last, largement reprise par la suite dans le contexte des affaires ou de la vie sentimentale (voir Bad boy).
